--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lama1-Itga7.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lama1-Itga7.xlsx
@@ -534,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H2">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.88440375340634</v>
+        <v>3.676435666666666</v>
       </c>
       <c r="N2">
-        <v>2.88440375340634</v>
+        <v>11.029307</v>
       </c>
       <c r="O2">
-        <v>0.0452549631030352</v>
+        <v>0.05596928005870617</v>
       </c>
       <c r="P2">
-        <v>0.0452549631030352</v>
+        <v>0.07888124434163156</v>
       </c>
       <c r="Q2">
-        <v>1.42753942189624</v>
+        <v>2.054165537000555</v>
       </c>
       <c r="R2">
-        <v>1.42753942189624</v>
+        <v>18.487489833005</v>
       </c>
       <c r="S2">
-        <v>0.0452549631030352</v>
+        <v>0.05596928005870617</v>
       </c>
       <c r="T2">
-        <v>0.0452549631030352</v>
+        <v>0.07888124434163156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H3">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.29197669643</v>
+        <v>3.794922333333334</v>
       </c>
       <c r="N3">
-        <v>3.29197669643</v>
+        <v>11.384767</v>
       </c>
       <c r="O3">
-        <v>0.05164959439435457</v>
+        <v>0.05777309604548284</v>
       </c>
       <c r="P3">
-        <v>0.05164959439435457</v>
+        <v>0.08142348268114613</v>
       </c>
       <c r="Q3">
-        <v>1.629254054522632</v>
+        <v>2.120368579656111</v>
       </c>
       <c r="R3">
-        <v>1.629254054522632</v>
+        <v>19.083317216905</v>
       </c>
       <c r="S3">
-        <v>0.05164959439435457</v>
+        <v>0.05777309604548284</v>
       </c>
       <c r="T3">
-        <v>0.05164959439435457</v>
+        <v>0.08142348268114613</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H4">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.342201462243654</v>
+        <v>0.477427</v>
       </c>
       <c r="N4">
-        <v>0.342201462243654</v>
+        <v>1.432281</v>
       </c>
       <c r="O4">
-        <v>0.005368982941224049</v>
+        <v>0.007268247806663079</v>
       </c>
       <c r="P4">
-        <v>0.005368982941224049</v>
+        <v>0.01024362704990227</v>
       </c>
       <c r="Q4">
-        <v>0.1693611988288575</v>
+        <v>0.2667567662683333</v>
       </c>
       <c r="R4">
-        <v>0.1693611988288575</v>
+        <v>2.400810896415</v>
       </c>
       <c r="S4">
-        <v>0.005368982941224049</v>
+        <v>0.007268247806663079</v>
       </c>
       <c r="T4">
-        <v>0.005368982941224049</v>
+        <v>0.01024362704990227</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H5">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.208113116433968</v>
+        <v>0.4995396666666667</v>
       </c>
       <c r="N5">
-        <v>0.208113116433968</v>
+        <v>1.498619</v>
       </c>
       <c r="O5">
-        <v>0.00326519870678802</v>
+        <v>0.007604886373395734</v>
       </c>
       <c r="P5">
-        <v>0.00326519870678802</v>
+        <v>0.01071807426468513</v>
       </c>
       <c r="Q5">
-        <v>0.102998644892319</v>
+        <v>0.2791119607872222</v>
       </c>
       <c r="R5">
-        <v>0.102998644892319</v>
+        <v>2.512007647085</v>
       </c>
       <c r="S5">
-        <v>0.00326519870678802</v>
+        <v>0.007604886373395734</v>
       </c>
       <c r="T5">
-        <v>0.00326519870678802</v>
+        <v>0.01071807426468513</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H6">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0100435660842</v>
+        <v>57.23834600000001</v>
       </c>
       <c r="N6">
-        <v>57.0100435660842</v>
+        <v>114.476692</v>
       </c>
       <c r="O6">
-        <v>0.8944612608545981</v>
+        <v>0.8713844897157522</v>
       </c>
       <c r="P6">
-        <v>0.8944612608545981</v>
+        <v>0.8187335716626348</v>
       </c>
       <c r="Q6">
-        <v>28.2152193632728</v>
+        <v>31.98125804679667</v>
       </c>
       <c r="R6">
-        <v>28.2152193632728</v>
+        <v>191.88754828078</v>
       </c>
       <c r="S6">
-        <v>0.8944612608545981</v>
+        <v>0.8713844897157522</v>
       </c>
       <c r="T6">
-        <v>0.8944612608545981</v>
+        <v>0.8187335716626348</v>
       </c>
     </row>
   </sheetData>
